--- a/map_system/MAP/MAP_Tabel.xlsx
+++ b/map_system/MAP/MAP_Tabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working_places\1216\1216-battery_temperature_prediction\map_system\MAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9B5551-219D-446E-852E-E58DE0E09026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82F3314-5CE6-4A96-8E41-6A79FA787B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,7 +388,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
